--- a/Pull Request Here/Ponpeco Accessories - 3298397484/Ponpeco Accessories - 3298397484.xlsx
+++ b/Pull Request Here/Ponpeco Accessories - 3298397484/Ponpeco Accessories - 3298397484.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bjmi0\OneDrive\바탕 화면\림월드 번역\Ponpeco Accessories - 3298397484\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B336AE50-98A5-4C9B-925A-694CA2F4C54B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D181B6-8541-4EAA-813E-F37C634F4FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,8 +19,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>bjmi0</author>
+  </authors>
+  <commentList>
+    <comment ref="E47" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2024-08-11에 새로 추가된 노드들 (8개)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F47" authorId="0" shapeId="0" xr:uid="{5C2DEBB1-7554-4357-A085-7D5EAB5F48E5}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2024-08-11에 새로 추가된 노드들 (8개)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="213">
   <si>
     <t>Class+Node [(Identifier (Key)]</t>
   </si>
@@ -55,6 +91,18 @@
     <t>ThingDef+Apparel_PAETeardropEarrings.description</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>물방울 귀걸이</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Apparel_PAETeardropEarrings.description</t>
   </si>
   <si>
@@ -64,6 +112,18 @@
     <t>ThingDef+Apparel_PAERodEarrings.label</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>물방울 모양의 귀걸이입니다. 아무런 효과도 없습니다.\n(주의: 외관상 귀 아래에 표시되지만 목 슬롯에 장착됩니다)</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Apparel_PAERodEarrings.label</t>
   </si>
   <si>
@@ -73,6 +133,18 @@
     <t>ThingDef+Apparel_PAERodEarrings.description</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>봉 귀걸이</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Apparel_PAERodEarrings.description</t>
   </si>
   <si>
@@ -82,6 +154,18 @@
     <t>ThingDef+Apparel_PAESmallEarrings.label</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>막대기 모양의 귀걸이입니다. 아무런 효과도 없습니다.\n(주의: 외관상 귀 아래에 표시되지만 목 슬롯에 장착됩니다)</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Apparel_PAESmallEarrings.label</t>
   </si>
   <si>
@@ -91,6 +175,18 @@
     <t>ThingDef+Apparel_PAESmallEarrings.description</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>소형 귀걸이</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Apparel_PAESmallEarrings.description</t>
   </si>
   <si>
@@ -100,6 +196,18 @@
     <t>ThingDef+Apparel_PAGSunglassesA.label</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>작은 귀걸이입니다. 아무런 효과도 없습니다.\n(주의: 외관상 귀 아래에 표시되지만 목 슬롯에 장착됩니다)</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Apparel_PAGSunglassesA.label</t>
   </si>
   <si>
@@ -109,12 +217,27 @@
     <t>ThingDef+Apparel_PAGSunglassesA.description</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>주황색 선글라스</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Apparel_PAGSunglassesA.description</t>
   </si>
   <si>
     <t>Frameless sunglasses with distinctive orange lenses. They offer minimal eye protection, so don't rely on them too much</t>
   </si>
   <si>
+    <t>주황색 유리가 인상적인 선글라스입니다. 방어구로써 성능은 크게 기대하지 않는 것이 좋습니다.</t>
+  </si>
+  <si>
     <t>ThingDef+Apparel_PAGSunglassesB.label</t>
   </si>
   <si>
@@ -127,12 +250,27 @@
     <t>ThingDef+Apparel_PAGSunglassesB.description</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>선글라스</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Apparel_PAGSunglassesB.description</t>
   </si>
   <si>
     <t>Sunglasses with customizable frames that add a personal touch. They provide minimal eye protection, so don't rely on them too much.</t>
   </si>
   <si>
+    <t>나만의 개성을 가져다주는 맞춤형 선글라스입니다. 방어구로써 성능은 크게 기대하지 않는 것이 좋습니다.</t>
+  </si>
+  <si>
     <t>ThingDef+Apparel_PAGGlasses.label</t>
   </si>
   <si>
@@ -145,12 +283,27 @@
     <t>ThingDef+Apparel_PAGGlasses.description</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>안경</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Apparel_PAGGlasses.description</t>
   </si>
   <si>
     <t>Standard design glasses. They offer minimal eye protection, so don't rely on them too much.</t>
   </si>
   <si>
+    <t>표준적인 디자인의 안경입니다. 방어구로써 성능은 크게 기대하지 않는 것이 좋습니다.</t>
+  </si>
+  <si>
     <t>ThingDef+Apparel_PAGEyepatchL.label</t>
   </si>
   <si>
@@ -163,12 +316,27 @@
     <t>ThingDef+Apparel_PAGEyepatchL.description</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>안대 (왼쪽)</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Apparel_PAGEyepatchL.description</t>
   </si>
   <si>
     <t>A stylish eyepatch. It has a small hole, so it doesn't affect your vision. It offers minimal eye protection, so don't rely on it too much.</t>
   </si>
   <si>
+    <t>멋진 장식용 안대입니다. 가운데 구멍이 뚫려 있어 시력에 영향을 주지 않습니다. 방어구로써 성능은 크게 기대하지 않는 것이 좋습니다.</t>
+  </si>
+  <si>
     <t>ThingDef+Apparel_PAGEyepatchR.label</t>
   </si>
   <si>
@@ -181,6 +349,18 @@
     <t>ThingDef+Apparel_PAGEyepatchR.description</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>안대 (오른쪽)</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Apparel_PAGEyepatchR.description</t>
   </si>
   <si>
@@ -196,12 +376,27 @@
     <t>ThingDef+Apparel_PAHHeadScarf.description</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>스카프</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Apparel_PAHHeadScarf.description</t>
   </si>
   <si>
     <t>A stylish headscarf designed for decoration. It offers similar coverage to a hood.</t>
   </si>
   <si>
+    <t>장식용 스카프입니다. 두건과 비슷한 성능을 지녔습니다.</t>
+  </si>
+  <si>
     <t>ThingDef+Apparel_PAHHeadScarfB.label</t>
   </si>
   <si>
@@ -214,6 +409,18 @@
     <t>ThingDef+Apparel_PAHHeadScarfB.description</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>레이스 스카프</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Apparel_PAHHeadScarfB.description</t>
   </si>
   <si>
@@ -223,6 +430,18 @@
     <t>ThingDef+Apparel_PAHHeadband.label</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>레이스가 달린 장식용 스카프입니다. 두건과 비슷한 성능을 지녔습니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Apparel_PAHHeadband.label</t>
   </si>
   <si>
@@ -232,378 +451,566 @@
     <t>ThingDef+Apparel_PAHHeadband.description</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>단순한 머리띠</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Apparel_PAHHeadband.description</t>
   </si>
   <si>
+    <t>일자로 뻗은 머리띠입니다. 부족민의 머리 방어구와 비슷한 성능을 지녔습니다.</t>
+  </si>
+  <si>
+    <t>ThingDef+Apparel_PAHRibbonHeadband.label</t>
+  </si>
+  <si>
+    <t>Apparel_PAHRibbonHeadband.label</t>
+  </si>
+  <si>
+    <t>PAH Ribbon Headband</t>
+  </si>
+  <si>
+    <t>ThingDef+Apparel_PAHRibbonHeadband.description</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>리본 머리띠</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apparel_PAHRibbonHeadband.description</t>
+  </si>
+  <si>
+    <t>It's a headband with a small ribbon. It offers similar functionality to a tribal headdress.</t>
+  </si>
+  <si>
+    <t>리본이 달린 머리띠입니다. 부족민의 머리 방어구와 비슷한 성능을 지녔습니다.</t>
+  </si>
+  <si>
+    <t>ThingDef+Apparel_PAHDekaRibbon.label</t>
+  </si>
+  <si>
+    <t>Apparel_PAHDekaRibbon.label</t>
+  </si>
+  <si>
+    <t>PAH Big Ribbon</t>
+  </si>
+  <si>
+    <t>ThingDef+Apparel_PAHDekaRibbon.description</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>큰 리본</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apparel_PAHDekaRibbon.description</t>
+  </si>
+  <si>
+    <t>A large ribbon-shaped hair ornament. It offers similar functionality to a tribal headdress.</t>
+  </si>
+  <si>
+    <t>ThingDef+Apparel_PAHMokoRibbon.label</t>
+  </si>
+  <si>
+    <t>Apparel_PAHMokoRibbon.label</t>
+  </si>
+  <si>
+    <t>PAH Fluffy Ribbon Headband</t>
+  </si>
+  <si>
+    <t>ThingDef+Apparel_PAHMokoRibbon.description</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>털 리본 머리띠</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apparel_PAHMokoRibbon.description</t>
+  </si>
+  <si>
+    <t>A headband with a fluffy ribbon. It functions similarly to a tuque.</t>
+  </si>
+  <si>
+    <t>ThingDef+Apparel_PAHHeadphones.label</t>
+  </si>
+  <si>
+    <t>Apparel_PAHHeadphones.label</t>
+  </si>
+  <si>
+    <t>PAH Headphones</t>
+  </si>
+  <si>
+    <t>ThingDef+Apparel_PAHHeadphones.description</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>헤드폰</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apparel_PAHHeadphones.description</t>
+  </si>
+  <si>
+    <t>Fashionable headphones designed purely for style. They do not block surrounding sounds and provide protection similar to a simple helmet.</t>
+  </si>
+  <si>
+    <t>ThingDef+Apparel_PAHVeil.label</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>순전히 장식용으로 만들어진 헤드폰입니다. 노이즈캔슬링 기능은 존재하지 않으며 간단한 헬멧 수준의 성능을 지녔습니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apparel_PAHVeil.label</t>
+  </si>
+  <si>
+    <t>PAH Veil</t>
+  </si>
+  <si>
+    <t>ThingDef+Apparel_PAHVeil.description</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>베일</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apparel_PAHVeil.description</t>
+  </si>
+  <si>
+    <t>A mysterious lace-adorned veil. It offers similar coverage to a hood.</t>
+  </si>
+  <si>
+    <t>ThingDef+Apparel_PAMHairExtensions.label</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>신비한 분위기를 주는 베일입니다. 두건과 비슷한 성능을 지녔습니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apparel_PAMHairExtensions.label</t>
+  </si>
+  <si>
+    <t>PAM Hair Extensions</t>
+  </si>
+  <si>
+    <t>ThingDef+Apparel_PAMHairExtensions.description</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>머리카락 장식</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apparel_PAMHairExtensions.description</t>
+  </si>
+  <si>
+    <t>Hair extensions that add an accent to your hairstyle. It has no effect when equipped.\n (*Note: Equipped in the 'Neck' slot.)</t>
+  </si>
+  <si>
+    <t>ThingDef+Apparel_PAMRibbonPin.label</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>머리카락에 포인트를 주기 위해 사용합니다. 아무런 효과도 없습니다.\n (주의: 목 슬롯에 장착됩니다)</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apparel_PAMRibbonPin.label</t>
+  </si>
+  <si>
+    <t>PAM Ribbon Pin</t>
+  </si>
+  <si>
+    <t>ThingDef+Apparel_PAMRibbonPin.description</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>리본 머리핀</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apparel_PAMRibbonPin.description</t>
+  </si>
+  <si>
+    <t>A hairpin shaped like a ribbon. It has no effect when equipped. \n(*Note: Equipped in the 'Neck' slot.)</t>
+  </si>
+  <si>
+    <t>ThingDef+Apparel_PAMStarHairPin.label</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>리본 모양 머리핀입니다. 아무런 효과도 없습니다.\n(주의: 목 슬롯에 장착됩니다)</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apparel_PAMStarHairPin.label</t>
+  </si>
+  <si>
+    <t>PAM Star Hair Pin</t>
+  </si>
+  <si>
+    <t>ThingDef+Apparel_PAMStarHairPin.description</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>별 머리핀</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apparel_PAMStarHairPin.description</t>
+  </si>
+  <si>
+    <t>A hairpin shaped like a star. It has no effect when equipped. \n(*Note: Equipped in the 'Neck' slot.)</t>
+  </si>
+  <si>
+    <t>ThingDef+Apparel_PAMCloverCrown.label</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>별 모양 머리핀입니다. 아무런 효과도 없습니다.\n(주의: 목 슬롯에 장착됩니다)</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apparel_PAMCloverCrown.label</t>
+  </si>
+  <si>
+    <t>PAM Clover Crown</t>
+  </si>
+  <si>
+    <t>ThingDef+Apparel_PAMCloverCrown.description</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>클로버 머리띠</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apparel_PAMCloverCrown.description</t>
+  </si>
+  <si>
+    <t>A flower crown made of white clover. It has no effect when equipped. \n(*Note: Equipped in the 'Neck' slot.)</t>
+  </si>
+  <si>
+    <t>ThingDef+Apparel_PANMuffler.label</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>하얀 클로버로 만든 머리띠입니다. 아무런 효과도 없습니다.\n(주의: 목 슬롯에 장착됩니다)</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apparel_PANMuffler.label</t>
+  </si>
+  <si>
+    <t>PAN Muffler</t>
+  </si>
+  <si>
+    <t>ThingDef+Apparel_PANMuffler.description</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>머플러</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apparel_PANMuffler.description</t>
+  </si>
+  <si>
+    <t>This muffler offers a slight warming effect but provides little to no defense.</t>
+  </si>
+  <si>
+    <t>ThingDef+Apparel_PANNeckScarf.label</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>몸을 약간이나마 따뜻하게 만들어 주는 머플러입니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apparel_PANNeckScarf.label</t>
+  </si>
+  <si>
+    <t>PAN Neck Scarf</t>
+  </si>
+  <si>
+    <t>ThingDef+Apparel_PANNeckScarf.description</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>목 스카프</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apparel_PANNeckScarf.description</t>
+  </si>
+  <si>
+    <t>This scarf adds a stylish touch to your neck. It offers a slight warming effect but provides no defense.</t>
+  </si>
+  <si>
+    <t>목을 감싸는 두건입니다. 방어구로써 성능은 크게 기대하지 않는 것이 좋습니다.</t>
+  </si>
+  <si>
+    <t>ThingDef+Apparel_PAHDeepHood.label</t>
+  </si>
+  <si>
+    <t>Apparel_PAHDeepHood.label</t>
+  </si>
+  <si>
+    <t>PAH Deep Hood</t>
+  </si>
+  <si>
+    <t>ThingDef+Apparel_PAHDeepHood.description</t>
+  </si>
+  <si>
+    <t>Apparel_PAHDeepHood.description</t>
+  </si>
+  <si>
+    <t>A hood that is worn deep enough to hide the face. The wearer might be shy. It has the same stats as a hood.</t>
+  </si>
+  <si>
+    <t>ThingDef+Apparel_PAHPilotGoggles.label</t>
+  </si>
+  <si>
+    <t>Apparel_PAHPilotGoggles.label</t>
+  </si>
+  <si>
+    <t>PAH Pilot Goggles</t>
+  </si>
+  <si>
+    <t>ThingDef+Apparel_PAHPilotGoggles.description</t>
+  </si>
+  <si>
+    <t>Apparel_PAHPilotGoggles.description</t>
+  </si>
+  <si>
+    <t>Fashionable pilot goggles worn on the forehead instead of over the eyes, possibly for a specific reason. They have the same stats as a simple helmet.</t>
+  </si>
+  <si>
+    <t>ThingDef+Apparel_PAHHeaddress.label</t>
+  </si>
+  <si>
+    <t>Apparel_PAHHeaddress.label</t>
+  </si>
+  <si>
+    <t>PAH Headdress</t>
+  </si>
+  <si>
+    <t>ThingDef+Apparel_PAHHeaddress.description</t>
+  </si>
+  <si>
+    <t>Apparel_PAHHeaddress.description</t>
+  </si>
+  <si>
+    <t>A headdress adorned with Gothic Lolita-style ribbons and lace. It has the same stats as a tribal headdress.</t>
+  </si>
+  <si>
+    <t>ThingDef+Apparel_PAHAngolaBeret.label</t>
+  </si>
+  <si>
+    <t>Apparel_PAHAngolaBeret.label</t>
+  </si>
+  <si>
+    <t>PAH Angola Beret</t>
+  </si>
+  <si>
+    <t>ThingDef+Apparel_PAHAngolaBeret.description</t>
+  </si>
+  <si>
+    <t>Apparel_PAHAngolaBeret.description</t>
+  </si>
+  <si>
+    <t>푹 눌러쓰면 얼굴을 가릴 수 있는 후드입니다. 수줍음이 많은 사람들을 위해 만들어졌습니다. 두건과 비슷한 성능을 지녔습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>큰 두건</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조종사 고글</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별한 이유로 눈이 아니라 이마 위에 걸치는 용도로 설계된 조종사 고글입니다. 놀랍게도 방탄모와 비슷한 성능을 지녔습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>헤드 드레스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>A straightforward headband. It offers similar functionality to a tribal headdress.</t>
-  </si>
-  <si>
-    <t>ThingDef+Apparel_PAHRibbonHeadband.label</t>
-  </si>
-  <si>
-    <t>Apparel_PAHRibbonHeadband.label</t>
-  </si>
-  <si>
-    <t>PAH Ribbon Headband</t>
-  </si>
-  <si>
-    <t>ThingDef+Apparel_PAHRibbonHeadband.description</t>
-  </si>
-  <si>
-    <t>Apparel_PAHRibbonHeadband.description</t>
-  </si>
-  <si>
-    <t>It's a headband with a small ribbon. It offers similar functionality to a tribal headdress.</t>
-  </si>
-  <si>
-    <t>ThingDef+Apparel_PAHDekaRibbon.label</t>
-  </si>
-  <si>
-    <t>Apparel_PAHDekaRibbon.label</t>
-  </si>
-  <si>
-    <t>PAH Big Ribbon</t>
-  </si>
-  <si>
-    <t>ThingDef+Apparel_PAHDekaRibbon.description</t>
-  </si>
-  <si>
-    <t>Apparel_PAHDekaRibbon.description</t>
-  </si>
-  <si>
-    <t>A large ribbon-shaped hair ornament. It offers similar functionality to a tribal headdress.</t>
-  </si>
-  <si>
-    <t>ThingDef+Apparel_PAHMokoRibbon.label</t>
-  </si>
-  <si>
-    <t>Apparel_PAHMokoRibbon.label</t>
-  </si>
-  <si>
-    <t>PAH Fluffy Ribbon Headband</t>
-  </si>
-  <si>
-    <t>ThingDef+Apparel_PAHMokoRibbon.description</t>
-  </si>
-  <si>
-    <t>Apparel_PAHMokoRibbon.description</t>
-  </si>
-  <si>
-    <t>A headband with a fluffy ribbon. It functions similarly to a tuque.</t>
-  </si>
-  <si>
-    <t>ThingDef+Apparel_PAHHeadphones.label</t>
-  </si>
-  <si>
-    <t>Apparel_PAHHeadphones.label</t>
-  </si>
-  <si>
-    <t>PAH Headphones</t>
-  </si>
-  <si>
-    <t>ThingDef+Apparel_PAHHeadphones.description</t>
-  </si>
-  <si>
-    <t>Apparel_PAHHeadphones.description</t>
-  </si>
-  <si>
-    <t>Fashionable headphones designed purely for style. They do not block surrounding sounds and provide protection similar to a simple helmet.</t>
-  </si>
-  <si>
-    <t>ThingDef+Apparel_PAHVeil.label</t>
-  </si>
-  <si>
-    <t>Apparel_PAHVeil.label</t>
-  </si>
-  <si>
-    <t>PAH Veil</t>
-  </si>
-  <si>
-    <t>ThingDef+Apparel_PAHVeil.description</t>
-  </si>
-  <si>
-    <t>Apparel_PAHVeil.description</t>
-  </si>
-  <si>
-    <t>A mysterious lace-adorned veil. It offers similar coverage to a hood.</t>
-  </si>
-  <si>
-    <t>ThingDef+Apparel_PAMHairExtensions.label</t>
-  </si>
-  <si>
-    <t>Apparel_PAMHairExtensions.label</t>
-  </si>
-  <si>
-    <t>PAM Hair Extensions</t>
-  </si>
-  <si>
-    <t>ThingDef+Apparel_PAMHairExtensions.description</t>
-  </si>
-  <si>
-    <t>Apparel_PAMHairExtensions.description</t>
-  </si>
-  <si>
-    <t>Hair extensions that add an accent to your hairstyle. It has no effect when equipped.\n (*Note: Equipped in the 'Neck' slot.)</t>
-  </si>
-  <si>
-    <t>ThingDef+Apparel_PAMRibbonPin.label</t>
-  </si>
-  <si>
-    <t>Apparel_PAMRibbonPin.label</t>
-  </si>
-  <si>
-    <t>PAM Ribbon Pin</t>
-  </si>
-  <si>
-    <t>ThingDef+Apparel_PAMRibbonPin.description</t>
-  </si>
-  <si>
-    <t>Apparel_PAMRibbonPin.description</t>
-  </si>
-  <si>
-    <t>A hairpin shaped like a ribbon. It has no effect when equipped. \n(*Note: Equipped in the 'Neck' slot.)</t>
-  </si>
-  <si>
-    <t>ThingDef+Apparel_PAMStarHairPin.label</t>
-  </si>
-  <si>
-    <t>Apparel_PAMStarHairPin.label</t>
-  </si>
-  <si>
-    <t>PAM Star Hair Pin</t>
-  </si>
-  <si>
-    <t>ThingDef+Apparel_PAMStarHairPin.description</t>
-  </si>
-  <si>
-    <t>Apparel_PAMStarHairPin.description</t>
-  </si>
-  <si>
-    <t>A hairpin shaped like a star. It has no effect when equipped. \n(*Note: Equipped in the 'Neck' slot.)</t>
-  </si>
-  <si>
-    <t>ThingDef+Apparel_PAMCloverCrown.label</t>
-  </si>
-  <si>
-    <t>Apparel_PAMCloverCrown.label</t>
-  </si>
-  <si>
-    <t>PAM Clover Crown</t>
-  </si>
-  <si>
-    <t>ThingDef+Apparel_PAMCloverCrown.description</t>
-  </si>
-  <si>
-    <t>Apparel_PAMCloverCrown.description</t>
-  </si>
-  <si>
-    <t>A flower crown made of white clover. It has no effect when equipped. \n(*Note: Equipped in the 'Neck' slot.)</t>
-  </si>
-  <si>
-    <t>ThingDef+Apparel_PANMuffler.label</t>
-  </si>
-  <si>
-    <t>Apparel_PANMuffler.label</t>
-  </si>
-  <si>
-    <t>PAN Muffler</t>
-  </si>
-  <si>
-    <t>ThingDef+Apparel_PANMuffler.description</t>
-  </si>
-  <si>
-    <t>Apparel_PANMuffler.description</t>
-  </si>
-  <si>
-    <t>This muffler offers a slight warming effect but provides little to no defense.</t>
-  </si>
-  <si>
-    <t>ThingDef+Apparel_PANNeckScarf.label</t>
-  </si>
-  <si>
-    <t>Apparel_PANNeckScarf.label</t>
-  </si>
-  <si>
-    <t>PAN Neck Scarf</t>
-  </si>
-  <si>
-    <t>ThingDef+Apparel_PANNeckScarf.description</t>
-  </si>
-  <si>
-    <t>Apparel_PANNeckScarf.description</t>
-  </si>
-  <si>
-    <t>This scarf adds a stylish touch to your neck. It offers a slight warming effect but provides no defense.</t>
-  </si>
-  <si>
-    <t>물방울 귀걸이</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>봉 귀걸이</t>
+    <t>커다란 리본 모양 머리장식입니다. 부족민의 머리 방어구와 비슷한 성능을 지녔습니다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>소형 귀걸이</t>
+    <t>고딕 로리타 스타일의 리본과 레이스로 장식된 머리 장식입니다. 부족민의 머리 방어구와 비슷한 성능을 지녔습니다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>주황색 선글라스</t>
+    <t>앙골라 베레모</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>선글라스</t>
+    <t>A fluffy and soft angora beret that provides warmth. It has the same stats as a tuque.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>안경</t>
+    <t>푹신한 리본이 달린 머리띠입니다. 털모자와 비슷한 성능을 지녔습니다.</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>푹신하고 따뜻한 베레모입니다. 털모자와 비슷한 성능을 지녔습니다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>단순한 머리띠</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>리본 머리띠</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>큰 리본</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>안대 (왼쪽)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>안대 (오른쪽)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>털 리본 머리띠</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>헤드폰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>베일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>머리카락 장식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>리본 머리핀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>별 머리핀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>클로버 머리띠</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>머플러</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>막대기 모양의 귀걸이입니다. 아무런 효과도 없습니다.\n(주의: 외관상 귀 아래에 표시되지만 목 슬롯에 장착됩니다)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>물방울 모양의 귀걸이입니다. 아무런 효과도 없습니다.\n(주의: 외관상 귀 아래에 표시되지만 목 슬롯에 장착됩니다)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>작은 귀걸이입니다. 아무런 효과도 없습니다.\n(주의: 외관상 귀 아래에 표시되지만 목 슬롯에 장착됩니다)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스카프</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>레이스 스카프</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>푹신한 리본이 달린 머리띠입니다. 털모자와 비슷한 성능을 지녔습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>순전히 장식용으로 만들어진 헤드폰입니다. 노이즈캔슬링 기능은 존재하지 않으며 간단한 헬멧 수준의 성능을 지녔습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>신비한 분위기를 주는 베일입니다. 두건과 비슷한 성능을 지녔습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>일자로 뻗은 머리띠입니다. 부족민의 머리 방어구와 비슷한 성능을 지녔습니다.</t>
-  </si>
-  <si>
-    <t>리본이 달린 머리띠입니다. 부족민의 머리 방어구와 비슷한 성능을 지녔습니다.</t>
-  </si>
-  <si>
-    <t>커다란 리본 모양 머리장식입니다. 부족민의 머리 방어구와 비슷한 성능을 지녔습니다.</t>
-  </si>
-  <si>
-    <t>레이스가 달린 장식용 스카프입니다. 두건과 비슷한 성능을 지녔습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>장식용 스카프입니다. 두건과 비슷한 성능을 지녔습니다.</t>
-  </si>
-  <si>
-    <t>머리카락에 포인트를 주기 위해 사용합니다. 아무런 효과도 없습니다.\n (주의: 목 슬롯에 장착됩니다)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>별 모양 머리핀입니다. 아무런 효과도 없습니다.\n(주의: 목 슬롯에 장착됩니다)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>리본 모양 머리핀입니다. 아무런 효과도 없습니다.\n(주의: 목 슬롯에 장착됩니다)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>하얀 클로버로 만든 머리띠입니다. 아무런 효과도 없습니다.\n(주의: 목 슬롯에 장착됩니다)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>몸을 약간이나마 따뜻하게 만들어 주는 머플러입니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>목 스카프</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>주황색 유리가 인상적인 선글라스입니다. 방어구로써 성능은 크게 기대하지 않는 것이 좋습니다.</t>
-  </si>
-  <si>
-    <t>나만의 개성을 가져다주는 맞춤형 선글라스입니다. 방어구로써 성능은 크게 기대하지 않는 것이 좋습니다.</t>
-  </si>
-  <si>
-    <t>표준적인 디자인의 안경입니다. 방어구로써 성능은 크게 기대하지 않는 것이 좋습니다.</t>
-  </si>
-  <si>
-    <t>멋진 장식용 안대입니다. 가운데 구멍이 뚫려 있어 시력에 영향을 주지 않습니다. 방어구로써 성능은 크게 기대하지 않는 것이 좋습니다.</t>
-  </si>
-  <si>
-    <t>목을 감싸는 두건입니다. 방어구로써 성능은 크게 기대하지 않는 것이 좋습니다.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -622,13 +1029,24 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF87CEEB"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -643,9 +1061,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -947,17 +1366,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="7" width="9.1796875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="9.1796875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
@@ -994,7 +1413,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>138</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
@@ -1005,731 +1424,868 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>158</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>157</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>140</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>159</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>141</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>176</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>142</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>177</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>143</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>178</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>147</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>179</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>148</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>179</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>160</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>169</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>161</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>168</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>144</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>71</v>
+        <v>206</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>165</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>145</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>166</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>167</v>
+        <v>207</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>149</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>162</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>163</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>170</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>112</v>
+        <v>143</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
-        <v>114</v>
+        <v>145</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>118</v>
+        <v>151</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>122</v>
+        <v>156</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
-        <v>123</v>
+        <v>157</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>124</v>
+        <v>159</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
-        <v>126</v>
+        <v>161</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
-        <v>129</v>
+        <v>165</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>130</v>
+        <v>167</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>131</v>
+        <v>168</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>134</v>
+        <v>172</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>136</v>
+        <v>175</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>137</v>
+        <v>176</v>
       </c>
       <c r="F45" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A47" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>180</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A48" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A49" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A50" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A51" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A52" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A53" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A54" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>